--- a/processed_data/_2014-2015.xlsx
+++ b/processed_data/_2014-2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fall 2014" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6430" uniqueCount="2236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8470" uniqueCount="2236">
   <si>
     <t>AcadYr</t>
   </si>
@@ -7071,7 +7071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F287" sqref="F287"/>
     </sheetView>
   </sheetViews>
@@ -21201,7 +21201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P265"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C238" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -34481,8 +34481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P254"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="C49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -38093,6 +38093,9 @@
       <c r="N72">
         <v>0</v>
       </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
       <c r="P72" t="s">
         <v>23</v>
       </c>
@@ -47200,6 +47203,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>